--- a/testData/VOTestData.xlsx
+++ b/testData/VOTestData.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="227" documentId="11_972270C141F1D9C31B2CFB36104A8D0148EA74FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFDD305B-2443-4C5C-BD8A-12DB8794741B}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="11_972270C141F1D9C31B2CFB36104A8D0148EA74FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29246236-A5CE-4773-B462-1071F8C5E67C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateACustomer" sheetId="1" r:id="rId1"/>
     <sheet name="CreateASupplier" sheetId="2" r:id="rId2"/>
     <sheet name="CreateItems" sheetId="3" r:id="rId3"/>
     <sheet name="CreateSuppWithExcCurr" sheetId="4" r:id="rId4"/>
+    <sheet name="CreateEquipSalesOrd" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -134,9 +135,6 @@
     <t>ItemCategory</t>
   </si>
   <si>
-    <t>ItemSupp</t>
-  </si>
-  <si>
     <t>ItemCost</t>
   </si>
   <si>
@@ -152,9 +150,6 @@
     <t>ItemMeterPreSet2</t>
   </si>
   <si>
-    <t>EquipItem</t>
-  </si>
-  <si>
     <t>EquipSerialNo</t>
   </si>
   <si>
@@ -242,9 +237,6 @@
     <t>Toner (Col)</t>
   </si>
   <si>
-    <t>036 AutomationToner suppliers Ltd SL8 6FD</t>
-  </si>
-  <si>
     <t>20.99</t>
   </si>
   <si>
@@ -296,12 +288,6 @@
     <t>380.55</t>
   </si>
   <si>
-    <t>AUTMODEL123 Canon M700</t>
-  </si>
-  <si>
-    <t>SER0802AA</t>
-  </si>
-  <si>
     <t>2-3 Day Delivery (Data Direct)</t>
   </si>
   <si>
@@ -335,10 +321,16 @@
     <t>T0 T0 (0.00%)</t>
   </si>
   <si>
-    <t>SuppPriceBokItem</t>
-  </si>
-  <si>
-    <t>AUTOMATIONTONER157 Yellow non-OEM toner</t>
+    <t>TC_01_VO_Regression_CreateEquipSalesOrd</t>
+  </si>
+  <si>
+    <t>SER</t>
+  </si>
+  <si>
+    <t>SalesOrdType</t>
+  </si>
+  <si>
+    <t>Hardware/equipment</t>
   </si>
 </sst>
 </file>
@@ -443,10 +435,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,26 +761,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -845,30 +835,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -879,7 +869,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -891,26 +881,26 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -927,16 +917,16 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -950,25 +940,25 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1003,36 +993,36 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1044,13 +1034,13 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1060,24 +1050,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548C726A-DC57-4392-BFED-285C43854844}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1111,154 +1103,132 @@
       <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1271,104 +1241,153 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981988E9-B3C0-47A6-8A4B-0F3CA6218154}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981988E9-B3C0-47A6-8A4B-0F3CA6218154}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F88DD1B-9AC6-4A9D-8068-300E1EDBF268}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
